--- a/report/Model_Eval_Summary.xlsx
+++ b/report/Model_Eval_Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanja\Jupyter Code\Git Hub\Online-Shopper-Intention-Capstone\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65F70F3-589D-4413-B5A9-4F4194F551CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8139FB19-CC64-4F73-9737-6A314336FE4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1858D076-69DF-4634-B964-1F25900C2534}"/>
   </bookViews>
@@ -458,7 +458,7 @@
   <dimension ref="A2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
